--- a/data/trans_camb/P05A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P05A_R-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>3.15040015513684</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-10.02686813847567</v>
+        <v>-10.02686813847568</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7036295517784478</v>
+        <v>1.054524759756873</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1188732640702393</v>
+        <v>-0.4613919972498827</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-17.98462408967626</v>
+        <v>-17.76413656390318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.547808588375089</v>
+        <v>-2.689821476258828</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.486624304377115</v>
+        <v>-6.060177342976765</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-15.89032006408688</v>
+        <v>-16.03303372520294</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3380228978493618</v>
+        <v>0.654801557819509</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.296041810031187</v>
+        <v>-1.209000855030145</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-15.33921365969356</v>
+        <v>-15.72784810441544</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.31175144136618</v>
+        <v>13.1404976878005</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.39601845445265</v>
+        <v>11.97908291439955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.224400108012814</v>
+        <v>-3.020529959309379</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.762410695548946</v>
+        <v>10.12868222127461</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.576566930668794</v>
+        <v>6.497498532823119</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.4412659054672651</v>
+        <v>-1.072023965076983</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.32775329010124</v>
+        <v>9.32047652718038</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.531816665150854</v>
+        <v>7.207372036680828</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-5.0015859759908</v>
+        <v>-4.93691987701467</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.1004408411045252</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3196759204796689</v>
+        <v>-0.3196759204796691</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.01573909726476879</v>
+        <v>0.03313432627529925</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.003919124330039548</v>
+        <v>-0.01558508030187817</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5769896101557649</v>
+        <v>-0.5713550419940442</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.07261222770445763</v>
+        <v>-0.07627350792970575</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1741513794226148</v>
+        <v>-0.1716020554169706</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4398248622701788</v>
+        <v>-0.445359706407181</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01051985140837283</v>
+        <v>0.01954868809518821</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03737906701853588</v>
+        <v>-0.03703527279008478</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.46319254218471</v>
+        <v>-0.4720589794216087</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5006971013168222</v>
+        <v>0.5055391014816097</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4705131087924306</v>
+        <v>0.4655844889343104</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1225617861235142</v>
+        <v>-0.1015845031320459</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3223938226697285</v>
+        <v>0.3285038423938067</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2147540896568978</v>
+        <v>0.2098270584963992</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.01093775620974273</v>
+        <v>-0.02800328595556993</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3179719529069737</v>
+        <v>0.3215106984884797</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2618445664686966</v>
+        <v>0.2484613529950034</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.16509376833063</v>
+        <v>-0.1614010307758008</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>6.499673009652629</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-11.61820215378601</v>
+        <v>-11.618202153786</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>9.162517044058237</v>
@@ -878,7 +878,7 @@
         <v>7.795929010663078</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-10.37717139083243</v>
+        <v>-10.37717139083244</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.314526100479156</v>
+        <v>6.639236413434073</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.382257417534002</v>
+        <v>3.746882424979538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-15.12539998545307</v>
+        <v>-15.5511707159574</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7069507562820709</v>
+        <v>0.655456573015943</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9502250556720229</v>
+        <v>1.337662711221575</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-16.75430740180444</v>
+        <v>-17.31653177961003</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.493883654589008</v>
+        <v>5.538641090644133</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.163191319554358</v>
+        <v>3.991455650476606</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-13.93077725183844</v>
+        <v>-14.13458631246677</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.53237351104706</v>
+        <v>16.78482734006294</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.4173341772949</v>
+        <v>13.95527367469731</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.295044395222429</v>
+        <v>-3.017727728776328</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.89015084087767</v>
+        <v>11.64333771351667</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.32394702575541</v>
+        <v>12.17692367073173</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-6.057751693525351</v>
+        <v>-6.221862438353709</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.64857272575139</v>
+        <v>13.20313041118692</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.52818260587554</v>
+        <v>11.32796461840604</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-6.741529193272398</v>
+        <v>-6.314186655189865</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.2038038243204369</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3643004851402629</v>
+        <v>-0.3643004851402628</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3079723430806028</v>
@@ -983,7 +983,7 @@
         <v>0.2620383146202083</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3487995462836432</v>
+        <v>-0.3487995462836433</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2083721738326753</v>
+        <v>0.2194502378039977</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1174598823055007</v>
+        <v>0.1245201793573608</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5042151200333994</v>
+        <v>-0.522060703191218</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02004837052059628</v>
+        <v>0.02129518720617938</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02603958770604218</v>
+        <v>0.03864017067627109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4924130940703183</v>
+        <v>-0.4987836038483194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1780206949364556</v>
+        <v>0.1752742791195749</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1315379866386559</v>
+        <v>0.1307083239472735</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4467391658958095</v>
+        <v>-0.4518376391110832</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6514066649916346</v>
+        <v>0.6596413189276188</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5336619454831939</v>
+        <v>0.5323370062119354</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1179586901726099</v>
+        <v>-0.1118740697357305</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4012535148681946</v>
+        <v>0.4035325451765905</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.43258073960581</v>
+        <v>0.4181457931984496</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2061619407916791</v>
+        <v>-0.2144543398070195</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4520637970354748</v>
+        <v>0.478260759887578</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4127329623604564</v>
+        <v>0.4021674606357208</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.232593790709613</v>
+        <v>-0.2259077705436141</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.09124417443958088</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-16.9139884082354</v>
+        <v>-16.91398840823542</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5.599838099512683</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.134220093733838</v>
+        <v>3.126062022361172</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.741904970778808</v>
+        <v>-1.581596179330774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.97569171854506</v>
+        <v>-13.97693426667654</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.051672456712314</v>
+        <v>-2.770506269747504</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.25615146870375</v>
+        <v>-5.576215401375931</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-21.67279706017175</v>
+        <v>-21.14002505354945</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.984503017988871</v>
+        <v>1.985731039571963</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.031381668592826</v>
+        <v>-1.833924092938725</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-16.34177283953286</v>
+        <v>-16.45481844483899</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.98200793113992</v>
+        <v>14.00258171266932</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.005800221660968</v>
+        <v>8.565264925257537</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.346372292254971</v>
+        <v>-3.507154334905686</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.046321542329016</v>
+        <v>8.201746961728423</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.150541110128258</v>
+        <v>4.942919253237374</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-12.43871014909691</v>
+        <v>-12.29663903895255</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.417408449427022</v>
+        <v>9.366796286399094</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.070164937128372</v>
+        <v>5.224295214169857</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-9.24856409794296</v>
+        <v>-9.924435196846675</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.002429397825918154</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.4503389604755648</v>
+        <v>-0.450338960475565</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1651867397037342</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.08996868819502686</v>
+        <v>0.09915684168385966</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05400493796202596</v>
+        <v>-0.04756591077933008</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4322104900494222</v>
+        <v>-0.4272232083713925</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05057613346986826</v>
+        <v>-0.07013267872494344</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1311741830100064</v>
+        <v>-0.1400479155604691</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5408185668444222</v>
+        <v>-0.5331643902364499</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05610892348013833</v>
+        <v>0.05083147844511845</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05682141435327752</v>
+        <v>-0.05244564746106582</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4558487001087672</v>
+        <v>-0.4620141161818953</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5087999757148636</v>
+        <v>0.5137753672782214</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3347080330070584</v>
+        <v>0.3196006210508198</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1232419531900045</v>
+        <v>-0.1273868571148034</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2298375602019428</v>
+        <v>0.2306238296512991</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1459508158407058</v>
+        <v>0.1408378188870931</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3607938818371069</v>
+        <v>-0.3488705250995314</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2943788899815699</v>
+        <v>0.28662232094488</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.156959358472932</v>
+        <v>0.1609979334298606</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2879484969700798</v>
+        <v>-0.3056287089017086</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>5.040708395939541</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-12.91593430255048</v>
+        <v>-12.91593430255047</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.823836469368328</v>
+        <v>0.8194322085449867</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5208255713782457</v>
+        <v>0.6804600775874174</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-17.17796472696491</v>
+        <v>-16.47346621361728</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.628633572186564</v>
+        <v>2.086039203419143</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.308346812066319</v>
+        <v>-1.999497175566533</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-19.23985048112931</v>
+        <v>-19.4063519141153</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.659527423616179</v>
+        <v>3.476784291463797</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9420548299818187</v>
+        <v>1.329500171205884</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-16.32692583072388</v>
+        <v>-16.24133116879939</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.44433615095036</v>
+        <v>12.94289966472907</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.85563552771085</v>
+        <v>12.19570606540236</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.772729190746358</v>
+        <v>-6.546965807837331</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.97828060230769</v>
+        <v>14.75274124468247</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.362232204249075</v>
+        <v>9.287334045815438</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-9.342448505037636</v>
+        <v>-9.943671083749113</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.25657767334868</v>
+        <v>11.65732566164488</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.32243646610425</v>
+        <v>9.729136667636606</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-9.44830848677009</v>
+        <v>-9.356321455275223</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.05171123969878177</v>
+        <v>0.02182546267654489</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.0144008939125293</v>
+        <v>0.01393706032262851</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4831725422855272</v>
+        <v>-0.4701198211379764</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.0384609975567103</v>
+        <v>0.05332703346480264</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05977621694161923</v>
+        <v>-0.05086072388956776</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4907789096827841</v>
+        <v>-0.492192682131793</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09819205188426079</v>
+        <v>0.09522337764635506</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02534475642577686</v>
+        <v>0.03396628338673428</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4515189534583467</v>
+        <v>-0.4499052715625224</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4452280407151232</v>
+        <v>0.4297951775985108</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4037941811216928</v>
+        <v>0.4058249709734883</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2270933808475676</v>
+        <v>-0.2211842175352673</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4292821231564987</v>
+        <v>0.4462998712206147</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2845601011267813</v>
+        <v>0.292667993352987</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2869076933565409</v>
+        <v>-0.3050223525078123</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3857335405827715</v>
+        <v>0.3558437210695176</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2877748894100752</v>
+        <v>0.3020003904054117</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2954206629266893</v>
+        <v>-0.2956083196086131</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.7438243400996081</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-15.52501338414212</v>
+        <v>-15.52501338414211</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>7.812975236950437</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.624957772619355</v>
+        <v>5.931395921533345</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.697213692383916</v>
+        <v>0.5298027850796798</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-19.8007290589093</v>
+        <v>-19.23138963975343</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.943047258402906</v>
+        <v>-4.171032867687209</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.495308039959135</v>
+        <v>-6.047119103435899</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-20.96396795348482</v>
+        <v>-21.008802121474</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.285872160483658</v>
+        <v>3.030159984444336</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.63515727688952</v>
+        <v>-0.6649242201785851</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-18.90192444946178</v>
+        <v>-18.3684559966062</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>19.83243396404058</v>
+        <v>19.00087820695201</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.95062205228355</v>
+        <v>13.47835664728186</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-8.440848244366544</v>
+        <v>-8.610087990252282</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.02788204291404</v>
+        <v>10.0072895559593</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.833287108717483</v>
+        <v>7.439834512993509</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-10.14713836235741</v>
+        <v>-9.464264560895167</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.93673442586328</v>
+        <v>12.56717363742486</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.049072021913883</v>
+        <v>8.327991705369511</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-11.3434766036318</v>
+        <v>-11.08720444540113</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.02027345588833824</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4231451661922186</v>
+        <v>-0.4231451661922185</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2327922980939636</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1998692521825384</v>
+        <v>0.1961755134596074</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.02055545051153636</v>
+        <v>0.01545264123207348</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5820051832731112</v>
+        <v>-0.5733404570910255</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1013598854021794</v>
+        <v>-0.1050623110504881</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.140384660193573</v>
+        <v>-0.1520894341277995</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5204345784608919</v>
+        <v>-0.5166915338803919</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09033068413612702</v>
+        <v>0.08570303159847707</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.04562491704468219</v>
+        <v>-0.02031446212618133</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5213201316309526</v>
+        <v>-0.5110866521375131</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7488406305350783</v>
+        <v>0.7160453391049616</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5228776841790317</v>
+        <v>0.5015960830879228</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.318766027246635</v>
+        <v>-0.3315275478852123</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2999956439428358</v>
+        <v>0.2943518505622063</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2316457391535117</v>
+        <v>0.2195544305708713</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3092444258724302</v>
+        <v>-0.3004296288642484</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4219328602733146</v>
+        <v>0.4107050014184971</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2545017691043133</v>
+        <v>0.2647392746165264</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3636966364130696</v>
+        <v>-0.3546698695918853</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>10.86482162162853</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-9.80310587462125</v>
+        <v>-9.803105874621249</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>6.076606623396119</v>
@@ -1725,7 +1725,7 @@
         <v>2.438066984254728</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-16.01422226168272</v>
+        <v>-16.01422226168273</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>10.88095178549128</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>8.311036890845257</v>
+        <v>9.114375731211968</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>3.336741377851474</v>
+        <v>3.441720923432658</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-15.84407728465076</v>
+        <v>-15.3390867140842</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.7580431759330806</v>
+        <v>-2.019145529059411</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.071733033577095</v>
+        <v>-5.079844061874963</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-22.01475967308017</v>
+        <v>-21.68106751466628</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>5.557412425341619</v>
+        <v>5.36924623797724</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.290314933557341</v>
+        <v>1.232073243092779</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-17.06283696734141</v>
+        <v>-17.4580444959492</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.03542836031015</v>
+        <v>24.8102365797063</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>18.14176265520679</v>
+        <v>18.66333295264761</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-4.141620826575314</v>
+        <v>-4.455260907344769</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.47165854157676</v>
+        <v>13.55582011889757</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.744734977215357</v>
+        <v>10.11382074083267</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-10.21871247970508</v>
+        <v>-10.24719338147752</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>15.81703418315087</v>
+        <v>15.79616018818647</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>11.23148822602224</v>
+        <v>11.26321326433255</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-8.899228342107678</v>
+        <v>-9.453012234845847</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.393960958563857</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.3554628986803267</v>
+        <v>-0.3554628986803265</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.1786948438586518</v>
@@ -1830,7 +1830,7 @@
         <v>0.07169626504880507</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.4709304261281608</v>
+        <v>-0.4709304261281611</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.3504720362534746</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2661467822682221</v>
+        <v>0.2881009995436097</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.1053312900066074</v>
+        <v>0.1025787949870143</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4950711437845062</v>
+        <v>-0.4969927313991523</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.02362094139041784</v>
+        <v>-0.05167591066083113</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1440571088689347</v>
+        <v>-0.134468506422034</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5742716546458138</v>
+        <v>-0.5757514032599002</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1655597383446485</v>
+        <v>0.1639580451236649</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.04221576988512665</v>
+        <v>0.03612098129422071</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5087084852868579</v>
+        <v>-0.5076055247925778</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.9949177237660093</v>
+        <v>1.054109523041001</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7602090589889088</v>
+        <v>0.7622488842044728</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1739495365033869</v>
+        <v>-0.1910584213907119</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4468955716402137</v>
+        <v>0.4479041826886591</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2841798101636424</v>
+        <v>0.3396971635114571</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.3492891509134068</v>
+        <v>-0.3479353217752664</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5658487781683978</v>
+        <v>0.5550871027925186</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4015476971821579</v>
+        <v>0.395295261153173</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.317917284646945</v>
+        <v>-0.3265116479860793</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.10205037529961</v>
+        <v>0.1135051048981565</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.115168601365227</v>
+        <v>-7.536188775052937</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-19.77985622552002</v>
+        <v>-20.2667184210545</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.215624480934624</v>
+        <v>1.21806450202656</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-6.561304113751324</v>
+        <v>-7.386346181574813</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-19.44854009302197</v>
+        <v>-20.01843310024254</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>3.654383594794898</v>
+        <v>3.701740649337063</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-5.268599597134858</v>
+        <v>-4.523937782177767</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-17.94577973768037</v>
+        <v>-17.91878687977203</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>17.31919098937844</v>
+        <v>17.78130754977756</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.468359496245441</v>
+        <v>9.278784310731497</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-6.65564701801139</v>
+        <v>-6.370779026135419</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>17.02536177278132</v>
+        <v>16.13622979723451</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.513547668638741</v>
+        <v>7.637846905328982</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-7.852856024200815</v>
+        <v>-7.9570846738481</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>14.53277732736018</v>
+        <v>15.09836151476007</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.071371650952178</v>
+        <v>6.039043962936691</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-9.245981830492045</v>
+        <v>-8.977724736878232</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.02601755767966315</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.4666948318557558</v>
+        <v>-0.4666948318557559</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.03804339916358281</v>
+        <v>0.009287387750236254</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1997666082707839</v>
+        <v>-0.2264894833910702</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6205038337644752</v>
+        <v>-0.6223571085638019</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.06423399708595114</v>
+        <v>0.04376697968577408</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1998701127654133</v>
+        <v>-0.2255614190407446</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.5701581601378837</v>
+        <v>-0.5761703315681335</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.11948482405742</v>
+        <v>0.1146940330294612</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.163126913330454</v>
+        <v>-0.1477303166583063</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5565730397629696</v>
+        <v>-0.5607702939356247</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7008147468366595</v>
+        <v>0.7788649661053554</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3882626247288148</v>
+        <v>0.3989896416611559</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.2879950026356606</v>
+        <v>-0.2822900257405485</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.6693740618647553</v>
+        <v>0.6269177486545288</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3057665937710133</v>
+        <v>0.2926599192712446</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.3103687708571132</v>
+        <v>-0.3086211262507852</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5604443389151795</v>
+        <v>0.5872709416069496</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2331128863170229</v>
+        <v>0.2321686861951789</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.3473257727300792</v>
+        <v>-0.3499546100733745</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2162,7 @@
         <v>4.298770104895122</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-12.51130377345543</v>
+        <v>-12.51130377345544</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>7.784346411859986</v>
+        <v>7.573400700480382</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>4.014220630596265</v>
+        <v>4.222729681545326</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-13.09826934901841</v>
+        <v>-13.12443426127454</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3.354874151307694</v>
+        <v>3.173160606180204</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.3017469340526309</v>
+        <v>-0.07249761010339766</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-15.98563953498972</v>
+        <v>-16.07411871122732</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>6.074954800726931</v>
+        <v>6.195578901514671</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>2.590954753557219</v>
+        <v>2.837039606178995</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-14.02902608983634</v>
+        <v>-13.93469473017022</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>12.31918439134178</v>
+        <v>12.74531575756656</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>8.63967440592722</v>
+        <v>8.773158022631906</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-8.839534647218841</v>
+        <v>-8.819535264662926</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.93394416642422</v>
+        <v>7.938847417487251</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.292633521482035</v>
+        <v>4.622141625739746</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-11.95034972042538</v>
+        <v>-11.95610828186227</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>9.385051663557963</v>
+        <v>9.535992061669198</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>5.930169793009654</v>
+        <v>5.952159896513594</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-11.03382585494427</v>
+        <v>-10.97784448267712</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>0.1343219251067632</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.3909356321549661</v>
+        <v>-0.3909356321549662</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.2544508471915359</v>
+        <v>0.2468681194214348</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1301795588955869</v>
+        <v>0.1399883107949526</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4300323023690799</v>
+        <v>-0.429638062954715</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.09323942275602694</v>
+        <v>0.08751968095897068</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.008666010978989162</v>
+        <v>-0.002037799870639854</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.4487550950486087</v>
+        <v>-0.4505851530491828</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1847337481093306</v>
+        <v>0.188319763483326</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.07775994855128428</v>
+        <v>0.08625492402985148</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.426084375304332</v>
+        <v>-0.42591277488119</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4369784311161529</v>
+        <v>0.4474182995054338</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3036679725378735</v>
+        <v>0.3164312236050837</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.309418563505565</v>
+        <v>-0.3094823103502655</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2342345937236198</v>
+        <v>0.2373746967961438</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1290923267689914</v>
+        <v>0.1390633055792126</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.3585726604746498</v>
+        <v>-0.3581705948788006</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3002850902462263</v>
+        <v>0.3058508440817138</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1892239603297313</v>
+        <v>0.1916889929604901</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.3524147329472567</v>
+        <v>-0.3528965690828257</v>
       </c>
     </row>
     <row r="52">
